--- a/medicine/Mort/Décès_en_1314/Décès_en_1314.xlsx
+++ b/medicine/Mort/Décès_en_1314/Décès_en_1314.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1314</t>
+          <t>Décès_en_1314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -504,7 +516,7 @@
 Geoffroy de Charnay, dernier commandeur des Templiers (sous le règne de Philippe le Bel et du Pape Clément V), brûlé vif avec son compagnon Jacques de Molay.
 Jacques de Molay, 22e et dernier  maître de l'ordre du Temple.
 7 avril : Mohammed III al-Makhlu, troisième émir nasride de Grenade.
-19 avril[1] : Gauthier d'Aunay et Philippe d'Aunay, amants des brus de Philippe IV le Bel.
+19 avril : Gauthier d'Aunay et Philippe d'Aunay, amants des brus de Philippe IV le Bel.
 20 avril : Clément V, (Bertrand de Got), 195e pape de l'Église catholique.
 17 juin : Siger Fabri, 14e abbé de Parc.
 23 juin : Henri de Bohun, chevalier anglais.
